--- a/Poisson_example.xlsx
+++ b/Poisson_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andy\OneDrive - University College London\Teaching\Guest\Spatial-analysis-of-public-health-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC50AFBC-C5FF-419A-B9AB-5BB80AD36A6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA0A5AD-870B-47D6-91A7-28489883E6DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28780" windowHeight="4630" xr2:uid="{C2BCFB03-28F5-4BF0-8286-522D5287C53E}"/>
   </bookViews>
@@ -63,31 +63,31 @@
     <t xml:space="preserve">Probability </t>
   </si>
   <si>
-    <t>Probability of number of plaques in quadrant</t>
-  </si>
-  <si>
     <t>Observed probability</t>
   </si>
   <si>
     <t xml:space="preserve">Expected </t>
   </si>
   <si>
-    <t xml:space="preserve">Expected frequency count on the Poisson distribution </t>
-  </si>
-  <si>
     <t>Expected count</t>
   </si>
   <si>
     <t xml:space="preserve">Observed probability </t>
   </si>
   <si>
-    <t>Frequency count / sum of the frequency count</t>
-  </si>
-  <si>
     <t>Freq count</t>
   </si>
   <si>
     <t>Total plaques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probability of number of plaques in quadrant using the formula </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected frequency count on the Poisson distribution (freq count * probability) </t>
+  </si>
+  <si>
+    <t>Frequency count per var1/ sum of the frequency count</t>
   </si>
 </sst>
 </file>
@@ -95,7 +95,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -129,7 +129,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,7 +447,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -461,10 +461,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -473,10 +473,10 @@
         <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -524,7 +524,7 @@
         <v>0.34724429703769621</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F9" si="2">E3*$B$9</f>
+        <f t="shared" ref="F3:F8" si="2">E3*$B$9</f>
         <v>10.07008461409319</v>
       </c>
       <c r="G3" s="2">
@@ -717,23 +717,23 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Poisson_example.xlsx
+++ b/Poisson_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andy\OneDrive - University College London\Teaching\Guest\Spatial-analysis-of-public-health-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA0A5AD-870B-47D6-91A7-28489883E6DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A3C472-50B0-4FAD-B9FD-81CE5408EC3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28780" windowHeight="4630" xr2:uid="{C2BCFB03-28F5-4BF0-8286-522D5287C53E}"/>
   </bookViews>
@@ -447,7 +447,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
